--- a/data/wcache.xlsx
+++ b/data/wcache.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7710" tabRatio="884" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7710" tabRatio="884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="add_wcache_dedication" sheetId="19" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,10 +157,6 @@
     <t>(list|add|del|mod)</t>
   </si>
   <si>
-    <t>wcache -a mod -i 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dedicate to pool: 1</t>
   </si>
   <si>
@@ -196,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wcache should be modified dedication for pool 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wcache and pd informaiont should be listed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,6 +213,25 @@
   </si>
   <si>
     <t>wcache -a del -p 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wcache -a mod -p 1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid physical drive type</t>
+  </si>
+  <si>
+    <t>wcache -a mod -p 5,16 -i 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. wcache should be modified dedication for pool 1 and pd_list is 6,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +583,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -606,7 +617,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -630,16 +641,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.375" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
@@ -648,7 +659,7 @@
     <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -662,18 +673,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +736,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -777,7 +791,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -840,7 +854,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -864,10 +878,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -890,7 +904,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -949,7 +963,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -957,7 +971,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -965,7 +979,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -973,15 +987,15 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -989,17 +1003,25 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1034,7 +1056,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1055,7 +1077,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1115,15 +1137,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>

--- a/data/wcache.xlsx
+++ b/data/wcache.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7710" tabRatio="884" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7710" tabRatio="884" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="add_wcache_dedication" sheetId="19" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Missing parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wcache -a del -p 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,6 +229,12 @@
   <si>
     <t>Slot16</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid parameter</t>
+  </si>
+  <si>
+    <t>Please specify the pool list or PD list</t>
   </si>
 </sst>
 </file>
@@ -643,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -675,10 +677,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -687,7 +689,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -987,10 +989,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
         <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -1011,7 +1013,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1091,19 +1093,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="43.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1135,15 +1138,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1154,5 +1160,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/wcache.xlsx
+++ b/data/wcache.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7710" tabRatio="884" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7710" tabRatio="884" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="add_wcache_dedication" sheetId="19" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,14 @@
   </si>
   <si>
     <t>Please specify the pool list or PD list</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -880,36 +888,42 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="61.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -917,26 +931,35 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -944,86 +967,120 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1033,55 +1090,70 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="2" max="3" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1093,52 +1165,64 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="43.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -1146,14 +1230,20 @@
         <v>59</v>
       </c>
       <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
